--- a/data/2nx.xlsx
+++ b/data/2nx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE9A6E-5A34-4BA1-9558-F776E713CE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF01D4-EBEF-4FDC-8C1D-2F2CA5C9A49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="1608" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="1704" windowWidth="18792" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/data/2nx.xlsx
+++ b/data/2nx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF01D4-EBEF-4FDC-8C1D-2F2CA5C9A49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC864C-FDC8-436A-AEAF-08B55095250D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1704" windowWidth="18792" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1608" yWindow="0" windowWidth="17808" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3964,7 +3964,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3978,6 +3978,6 @@
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>